--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T18:26:21+00:00</t>
+    <t>2025-12-03T15:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T15:31:39+00:00</t>
+    <t>2025-12-05T10:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:54:45+00:00</t>
+    <t>2025-12-08T08:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T08:28:39+00:00</t>
+    <t>2025-12-10T16:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T16:53:25+00:00</t>
+    <t>2025-12-15T10:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:12:23+00:00</t>
+    <t>2025-12-15T10:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:59:45+00:00</t>
+    <t>2026-01-07T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:19:48+00:00</t>
+    <t>2026-01-09T15:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:13:58+00:00</t>
+    <t>2026-01-09T15:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-dose-antigene.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:21:06+00:00</t>
+    <t>2026-01-16T13:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Dose d'antigène</t>
+    <t>Dose d'antigène</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -268,9 +268,6 @@
   <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>Dose d'antigène</t>
   </si>
   <si>
     <t>fr-lm-dose-antigene.antigene</t>
@@ -972,10 +969,10 @@
         <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1043,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1069,13 +1066,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1126,7 +1123,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
